--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,91 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.771687034137102y</t>
-  </si>
-  <si>
-    <t>-3.497001973171977</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.33468162538227564</t>
+  </si>
+  <si>
+    <t>0.27460787641315476</t>
+  </si>
+  <si>
+    <t>-3 - x + 2.134134097462038y</t>
+  </si>
+  <si>
+    <t>2.1511398581439956</t>
+  </si>
+  <si>
+    <t>0.9092567913461869</t>
+  </si>
+  <si>
+    <t>0.7584283452538826</t>
+  </si>
+  <si>
+    <t>0.33223838068854816</t>
+  </si>
+  <si>
+    <t>-12 + x + 1.688643388357223y</t>
+  </si>
+  <si>
+    <t>-0.42792924619149275</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9216433883592792</t>
-  </si>
-  <si>
-    <t>0.7126848815194647</t>
-  </si>
-  <si>
-    <t>0.08070952673937302</t>
-  </si>
-  <si>
-    <t>-3 - x + 0.771687034137102y</t>
-  </si>
-  <si>
-    <t>-4.1930363190235145</t>
-  </si>
-  <si>
-    <t>0.23190969850965648</t>
-  </si>
-  <si>
-    <t>0.9560560242650418</t>
-  </si>
-  <si>
-    <t>0.0640786873073884</t>
-  </si>
-  <si>
-    <t>-12 + x + 1.543374068274204y</t>
-  </si>
-  <si>
-    <t>-0.3159577614605551</t>
-  </si>
-  <si>
-    <t>0.9637500450473929</t>
-  </si>
-  <si>
-    <t>0.3659405141290256</t>
-  </si>
-  <si>
-    <t>0.14328598237623813</t>
-  </si>
-  <si>
-    <t>-12 + 4x - 0.771687034137102y</t>
-  </si>
-  <si>
-    <t>3.2631511956099892</t>
-  </si>
-  <si>
-    <t>0.9062712352416179</t>
-  </si>
-  <si>
-    <t>0.9731418765912537</t>
-  </si>
-  <si>
-    <t>0.2920278369596522</t>
+    <t>0.7906785535517057</t>
+  </si>
+  <si>
+    <t>-0.952172918987963</t>
+  </si>
+  <si>
+    <t>-0.9554972420966682</t>
+  </si>
+  <si>
+    <t>-12 + 4x + 6.075472295856408y</t>
+  </si>
+  <si>
+    <t>31.317470981482455</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.5618257705012442</t>
+  </si>
+  <si>
+    <t>0.9458192340837074</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.690038292195491</t>
-  </si>
-  <si>
-    <t>4.531632408573915</t>
+    <t>4.184892416399492</t>
+  </si>
+  <si>
+    <t>4.374623078112156</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.2558105207123749</t>
+    <t>-7.6890069373102525</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.302451996228999</t>
-  </si>
-  <si>
-    <t>2.9983715131637583</t>
+    <t>2.7106012642418458</t>
+  </si>
+  <si>
+    <t>2.9892927121337998</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -592,79 +589,79 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -690,10 +687,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -711,12 +708,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -734,17 +731,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -762,12 +759,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.22831296586289795</v>
+        <v>0.15567830582138853</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,88 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
+    <t>-21.128588198390794 + 2.624669341415005y</t>
+  </si>
+  <si>
+    <t>21.128588198390794</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.33468162538227564</t>
-  </si>
-  <si>
-    <t>0.27460787641315476</t>
-  </si>
-  <si>
-    <t>-3 - x + 2.134134097462038y</t>
-  </si>
-  <si>
-    <t>2.1511398581439956</t>
-  </si>
-  <si>
-    <t>0.9092567913461869</t>
-  </si>
-  <si>
-    <t>0.7584283452538826</t>
-  </si>
-  <si>
-    <t>0.33223838068854816</t>
-  </si>
-  <si>
-    <t>-12 + x + 1.688643388357223y</t>
-  </si>
-  <si>
-    <t>-0.42792924619149275</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>0.9044455249858698 - x + 0.645410493790575y</t>
+  </si>
+  <si>
+    <t>-3.90444552498587</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>15.218046704143411 + x - 2.648204559520921y</t>
+  </si>
+  <si>
+    <t>-27.21804670414341</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7906785535517057</t>
-  </si>
-  <si>
-    <t>-0.952172918987963</t>
-  </si>
-  <si>
-    <t>-0.9554972420966682</t>
-  </si>
-  <si>
-    <t>-12 + 4x + 6.075472295856408y</t>
-  </si>
-  <si>
-    <t>31.317470981482455</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>-24.93 + 4x</t>
+  </si>
+  <si>
+    <t>12.399999999999999</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5618257705012442</t>
-  </si>
-  <si>
-    <t>0.9458192340837074</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>5.8</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.184892416399492</t>
-  </si>
-  <si>
-    <t>4.374623078112156</t>
+    <t>8.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-7.6890069373102525</t>
+    <t>-0.08656648375532472</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.7106012642418458</t>
-  </si>
-  <si>
-    <t>2.9892927121337998</t>
+    <t>-21.3</t>
+  </si>
+  <si>
+    <t>2.419130555588483</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -589,79 +589,79 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.15567830582138853</v>
+        <v>2.3241022797604605</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,88 +66,94 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-21.128588198390794 + 2.624669341415005y</t>
-  </si>
-  <si>
-    <t>21.128588198390794</t>
+    <t>-24.14492753623188 + 4.057971014492753y</t>
+  </si>
+  <si>
+    <t>24.14492753623188</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>0.9044455249858698 - x + 0.645410493790575y</t>
-  </si>
-  <si>
-    <t>-3.90444552498587</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.8999999999999999</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>15.218046704143411 + x - 2.648204559520921y</t>
-  </si>
-  <si>
-    <t>-27.21804670414341</t>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
+  </si>
+  <si>
+    <t>77.78478260869564 - x - 12.173913043478258y</t>
+  </si>
+  <si>
+    <t>-80.78478260869564</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>-8.100000000000001</t>
+  </si>
+  <si>
+    <t>-8.4</t>
+  </si>
+  <si>
+    <t>-9.039 + x + 0.6199999999999999y</t>
+  </si>
+  <si>
+    <t>-2.9610000000000003</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>-24.93 + 4x</t>
-  </si>
-  <si>
-    <t>12.399999999999999</t>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>6.8999999999999995</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>-72.44782608695652 + 4x - 11.73913043478261y</t>
+  </si>
+  <si>
+    <t>-60.44782608695653</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>5.8</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-8.6</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>8.05</t>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.08656648375532472</t>
+    <t>3.6768115942028974</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-21.3</t>
-  </si>
-  <si>
-    <t>2.419130555588483</t>
+    <t>20.4</t>
+  </si>
+  <si>
+    <t>-239.79973913043477</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -638,30 +644,30 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -687,10 +693,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -708,12 +714,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -731,17 +737,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -759,12 +765,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.3241022797604605</v>
+        <v>0.6900000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,94 +66,79 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-24.14492753623188 + 4.057971014492753y</t>
-  </si>
-  <si>
-    <t>24.14492753623188</t>
+    <t>63.49145299145298 - 7.094017094017094y</t>
+  </si>
+  <si>
+    <t>-63.49145299145298</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>2.8000000000000003</t>
-  </si>
-  <si>
-    <t>77.78478260869564 - x - 12.173913043478258y</t>
-  </si>
-  <si>
-    <t>-80.78478260869564</t>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>-8.4</t>
+  </si>
+  <si>
+    <t>-8.299999999999999</t>
+  </si>
+  <si>
+    <t>7.0 - x</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-7.0 + x</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
   </si>
   <si>
     <t>0.44</t>
   </si>
   <si>
-    <t>-8.100000000000001</t>
-  </si>
-  <si>
-    <t>-8.4</t>
-  </si>
-  <si>
-    <t>-9.039 + x + 0.6199999999999999y</t>
-  </si>
-  <si>
-    <t>-2.9610000000000003</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>6.8999999999999995</t>
+    <t>-28.82 + 4x</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>-72.44782608695652 + 4x - 11.73913043478261y</t>
-  </si>
-  <si>
-    <t>-60.44782608695653</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-8.6</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>5.95</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.6768115942028974</t>
+    <t>3.8239316239316237</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>-239.79973913043477</t>
+    <t>-56.58974358974359</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -627,44 +612,44 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -685,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -693,10 +678,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -714,12 +699,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -737,17 +722,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -765,12 +750,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6900000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
